--- a/INTLINE/data/142/STANOR/old/10721 General government. Revenue and expenditure.xlsx
+++ b/INTLINE/data/142/STANOR/old/10721 General government. Revenue and expenditure.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <x:si>
     <x:t>10721: General government. Revenue and expenditure (NOK million), by sector, type, year and contents</x:t>
   </x:si>
@@ -95,6 +95,9 @@
   </x:si>
   <x:si>
     <x:t>2020</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021</x:t>
   </x:si>
   <x:si>
     <x:t>Revenue and expenditure</x:t>
@@ -331,13 +334,13 @@
     <x:t>General government</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Revenue and expenditure:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211202 08:00</x:t>
+    <x:t>20220303 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -777,23 +780,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AB194"/>
+  <x:dimension ref="A1:AC194"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="28.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="28" width="24.260625" style="0" customWidth="1"/>
+    <x:col min="1" max="29" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:28">
+    <x:row r="1" spans="1:29">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:28">
+    <x:row r="3" spans="1:29">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -872,93 +873,99 @@
       <x:c r="AB3" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:28">
+      <x:c r="AC3" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:29">
       <x:c r="C4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="G4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="J4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="K4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="L4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="M4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="N4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="O4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Q4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="R4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="S4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="T4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="U4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="V4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="W4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="X4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Y4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="Z4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="AA4" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="AB4" s="2" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:28">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="AC4" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:29">
       <x:c r="A5" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>401039</x:v>
@@ -1036,12 +1043,15 @@
         <x:v>1707679</x:v>
       </x:c>
       <x:c r="AB5" s="3" t="n">
-        <x:v>1528778</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:28">
+        <x:v>1544807</x:v>
+      </x:c>
+      <x:c r="AC5" s="3" t="n">
+        <x:v>2008746</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:29">
       <x:c r="B6" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>79495</x:v>
@@ -1119,12 +1129,15 @@
         <x:v>415563</x:v>
       </x:c>
       <x:c r="AB6" s="3" t="n">
-        <x:v>290879</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:28">
+        <x:v>307423</x:v>
+      </x:c>
+      <x:c r="AC6" s="3" t="n">
+        <x:v>608029</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:29">
       <x:c r="B7" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>141093</x:v>
@@ -1204,10 +1217,13 @@
       <x:c r="AB7" s="3" t="n">
         <x:v>428137</x:v>
       </x:c>
-    </x:row>
-    <x:row r="8" spans="1:28">
+      <x:c r="AC7" s="3" t="n">
+        <x:v>455443</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:29">
       <x:c r="B8" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>975</x:v>
@@ -1287,10 +1303,13 @@
       <x:c r="AB8" s="3" t="n">
         <x:v>64</x:v>
       </x:c>
-    </x:row>
-    <x:row r="9" spans="1:28">
+      <x:c r="AC8" s="3" t="n">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:29">
       <x:c r="B9" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>93247</x:v>
@@ -1368,12 +1387,15 @@
         <x:v>378773</x:v>
       </x:c>
       <x:c r="AB9" s="3" t="n">
-        <x:v>383613</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:28">
+        <x:v>383098</x:v>
+      </x:c>
+      <x:c r="AC9" s="3" t="n">
+        <x:v>402387</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:29">
       <x:c r="B10" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>74516</x:v>
@@ -1453,10 +1475,13 @@
       <x:c r="AB10" s="3" t="n">
         <x:v>371920</x:v>
       </x:c>
-    </x:row>
-    <x:row r="11" spans="1:28">
+      <x:c r="AC10" s="3" t="n">
+        <x:v>485232</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:29">
       <x:c r="B11" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>39897</x:v>
@@ -1536,10 +1561,13 @@
       <x:c r="AB11" s="3" t="n">
         <x:v>88529</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="1:28">
+      <x:c r="AC11" s="3" t="n">
+        <x:v>68106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:29">
       <x:c r="B12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>39897</x:v>
@@ -1619,10 +1647,13 @@
       <x:c r="AB12" s="3" t="n">
         <x:v>81140</x:v>
       </x:c>
-    </x:row>
-    <x:row r="13" spans="1:28">
+      <x:c r="AC12" s="3" t="n">
+        <x:v>63226</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:29">
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>0</x:v>
@@ -1702,10 +1733,13 @@
       <x:c r="AB13" s="3" t="n">
         <x:v>7389</x:v>
       </x:c>
-    </x:row>
-    <x:row r="14" spans="1:28">
+      <x:c r="AC13" s="3" t="n">
+        <x:v>4881</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:29">
       <x:c r="B14" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>4227</x:v>
@@ -1785,10 +1819,13 @@
       <x:c r="AB14" s="3" t="n">
         <x:v>202375</x:v>
       </x:c>
-    </x:row>
-    <x:row r="15" spans="1:28">
+      <x:c r="AC14" s="3" t="n">
+        <x:v>220995</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:29">
       <x:c r="B15" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>2613</x:v>
@@ -1868,10 +1905,13 @@
       <x:c r="AB15" s="3" t="n">
         <x:v>187322</x:v>
       </x:c>
-    </x:row>
-    <x:row r="16" spans="1:28">
+      <x:c r="AC15" s="3" t="n">
+        <x:v>210477</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:29">
       <x:c r="B16" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>1614</x:v>
@@ -1951,10 +1991,13 @@
       <x:c r="AB16" s="3" t="n">
         <x:v>15030</x:v>
       </x:c>
-    </x:row>
-    <x:row r="17" spans="1:28">
+      <x:c r="AC16" s="3" t="n">
+        <x:v>10494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:29">
       <x:c r="B17" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>0</x:v>
@@ -2034,10 +2077,13 @@
       <x:c r="AB17" s="3" t="n">
         <x:v>23</x:v>
       </x:c>
-    </x:row>
-    <x:row r="18" spans="1:28">
+      <x:c r="AC17" s="3" t="n">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:29">
       <x:c r="B18" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>9474</x:v>
@@ -2117,10 +2163,13 @@
       <x:c r="AB18" s="3" t="n">
         <x:v>59100</x:v>
       </x:c>
-    </x:row>
-    <x:row r="19" spans="1:28">
+      <x:c r="AC18" s="3" t="n">
+        <x:v>179277</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:29">
       <x:c r="B19" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>9080</x:v>
@@ -2200,10 +2249,13 @@
       <x:c r="AB19" s="3" t="n">
         <x:v>59075</x:v>
       </x:c>
-    </x:row>
-    <x:row r="20" spans="1:28">
+      <x:c r="AC19" s="3" t="n">
+        <x:v>179260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:29">
       <x:c r="B20" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>394</x:v>
@@ -2283,10 +2335,13 @@
       <x:c r="AB20" s="3" t="n">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="21" spans="1:28">
+      <x:c r="AC20" s="3" t="n">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:29">
       <x:c r="B21" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>14340</x:v>
@@ -2366,10 +2421,13 @@
       <x:c r="AB21" s="3" t="n">
         <x:v>19706</x:v>
       </x:c>
-    </x:row>
-    <x:row r="22" spans="1:28">
+      <x:c r="AC21" s="3" t="n">
+        <x:v>15169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:29">
       <x:c r="B22" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C22" s="3" t="n">
         <x:v>6578</x:v>
@@ -2449,10 +2507,13 @@
       <x:c r="AB22" s="3" t="n">
         <x:v>2209</x:v>
       </x:c>
-    </x:row>
-    <x:row r="23" spans="1:28">
+      <x:c r="AC22" s="3" t="n">
+        <x:v>1685</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:29">
       <x:c r="B23" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C23" s="3" t="n">
         <x:v>6546</x:v>
@@ -2532,10 +2593,13 @@
       <x:c r="AB23" s="3" t="n">
         <x:v>1942</x:v>
       </x:c>
-    </x:row>
-    <x:row r="24" spans="1:28">
+      <x:c r="AC23" s="3" t="n">
+        <x:v>1418</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:29">
       <x:c r="B24" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C24" s="3" t="n">
         <x:v>6436</x:v>
@@ -2615,10 +2679,13 @@
       <x:c r="AB24" s="3" t="n">
         <x:v>1418</x:v>
       </x:c>
-    </x:row>
-    <x:row r="25" spans="1:28">
+      <x:c r="AC24" s="3" t="n">
+        <x:v>940</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:29">
       <x:c r="B25" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>110</x:v>
@@ -2698,10 +2765,13 @@
       <x:c r="AB25" s="3" t="n">
         <x:v>524</x:v>
       </x:c>
-    </x:row>
-    <x:row r="26" spans="1:28">
+      <x:c r="AC25" s="3" t="n">
+        <x:v>478</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:29">
       <x:c r="B26" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>32</x:v>
@@ -2781,10 +2851,13 @@
       <x:c r="AB26" s="3" t="n">
         <x:v>267</x:v>
       </x:c>
-    </x:row>
-    <x:row r="27" spans="1:28">
+      <x:c r="AC26" s="3" t="n">
+        <x:v>267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:29">
       <x:c r="B27" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>9670</x:v>
@@ -2864,10 +2937,13 @@
       <x:c r="AB27" s="3" t="n">
         <x:v>42960</x:v>
       </x:c>
-    </x:row>
-    <x:row r="28" spans="1:28">
+      <x:c r="AC27" s="3" t="n">
+        <x:v>45267</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:29">
       <x:c r="B28" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C28" s="3" t="n">
         <x:v>2042</x:v>
@@ -2947,10 +3023,13 @@
       <x:c r="AB28" s="3" t="n">
         <x:v>11204</x:v>
       </x:c>
-    </x:row>
-    <x:row r="29" spans="1:28">
+      <x:c r="AC28" s="3" t="n">
+        <x:v>12340</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:29">
       <x:c r="B29" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>1345</x:v>
@@ -3030,10 +3109,13 @@
       <x:c r="AB29" s="3" t="n">
         <x:v>2438</x:v>
       </x:c>
-    </x:row>
-    <x:row r="30" spans="1:28">
+      <x:c r="AC29" s="3" t="n">
+        <x:v>2647</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:29">
       <x:c r="B30" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C30" s="3" t="n">
         <x:v>0</x:v>
@@ -3113,10 +3195,13 @@
       <x:c r="AB30" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="31" spans="1:28">
+      <x:c r="AC30" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:29">
       <x:c r="B31" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C31" s="3" t="n">
         <x:v>1345</x:v>
@@ -3196,10 +3281,13 @@
       <x:c r="AB31" s="3" t="n">
         <x:v>2438</x:v>
       </x:c>
-    </x:row>
-    <x:row r="32" spans="1:28">
+      <x:c r="AC31" s="3" t="n">
+        <x:v>2647</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:29">
       <x:c r="B32" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C32" s="3" t="n">
         <x:v>0</x:v>
@@ -3279,10 +3367,13 @@
       <x:c r="AB32" s="3" t="n">
         <x:v>840</x:v>
       </x:c>
-    </x:row>
-    <x:row r="33" spans="1:28">
+      <x:c r="AC32" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:29">
       <x:c r="B33" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C33" s="3" t="n">
         <x:v>427</x:v>
@@ -3362,10 +3453,13 @@
       <x:c r="AB33" s="3" t="n">
         <x:v>3703</x:v>
       </x:c>
-    </x:row>
-    <x:row r="34" spans="1:28">
+      <x:c r="AC33" s="3" t="n">
+        <x:v>5661</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:29">
       <x:c r="B34" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C34" s="3" t="n">
         <x:v>271</x:v>
@@ -3445,10 +3539,13 @@
       <x:c r="AB34" s="3" t="n">
         <x:v>2568</x:v>
       </x:c>
-    </x:row>
-    <x:row r="35" spans="1:28">
+      <x:c r="AC34" s="3" t="n">
+        <x:v>2548</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:29">
       <x:c r="B35" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C35" s="3" t="n">
         <x:v>0</x:v>
@@ -3528,10 +3625,13 @@
       <x:c r="AB35" s="3" t="n">
         <x:v>1656</x:v>
       </x:c>
-    </x:row>
-    <x:row r="36" spans="1:28">
+      <x:c r="AC35" s="3" t="n">
+        <x:v>1485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:29">
       <x:c r="B36" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C36" s="3" t="n">
         <x:v>0</x:v>
@@ -3611,10 +3711,13 @@
       <x:c r="AB36" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="37" spans="1:28">
+      <x:c r="AC36" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:29">
       <x:c r="B37" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C37" s="3" t="n">
         <x:v>365571</x:v>
@@ -3692,12 +3795,15 @@
         <x:v>1387053</x:v>
       </x:c>
       <x:c r="AB37" s="3" t="n">
-        <x:v>1561747</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="38" spans="1:28">
+        <x:v>1571947</x:v>
+      </x:c>
+      <x:c r="AC37" s="3" t="n">
+        <x:v>1575960</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:29">
       <x:c r="B38" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C38" s="3" t="n">
         <x:v>34893</x:v>
@@ -3777,10 +3883,13 @@
       <x:c r="AB38" s="3" t="n">
         <x:v>222599</x:v>
       </x:c>
-    </x:row>
-    <x:row r="39" spans="1:28">
+      <x:c r="AC38" s="3" t="n">
+        <x:v>233655</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:29">
       <x:c r="B39" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C39" s="3" t="n">
         <x:v>26299</x:v>
@@ -3860,10 +3969,13 @@
       <x:c r="AB39" s="3" t="n">
         <x:v>132866</x:v>
       </x:c>
-    </x:row>
-    <x:row r="40" spans="1:28">
+      <x:c r="AC39" s="3" t="n">
+        <x:v>140838</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:29">
       <x:c r="B40" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C40" s="3" t="n">
         <x:v>18333</x:v>
@@ -3943,10 +4055,13 @@
       <x:c r="AB40" s="3" t="n">
         <x:v>81325</x:v>
       </x:c>
-    </x:row>
-    <x:row r="41" spans="1:28">
+      <x:c r="AC40" s="3" t="n">
+        <x:v>87767</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:29">
       <x:c r="B41" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C41" s="3" t="n">
         <x:v>21058</x:v>
@@ -4026,10 +4141,13 @@
       <x:c r="AB41" s="3" t="n">
         <x:v>11530</x:v>
       </x:c>
-    </x:row>
-    <x:row r="42" spans="1:28">
+      <x:c r="AC41" s="3" t="n">
+        <x:v>9339</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:29">
       <x:c r="B42" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C42" s="3" t="n">
         <x:v>21006</x:v>
@@ -4109,10 +4227,13 @@
       <x:c r="AB42" s="3" t="n">
         <x:v>11115</x:v>
       </x:c>
-    </x:row>
-    <x:row r="43" spans="1:28">
+      <x:c r="AC42" s="3" t="n">
+        <x:v>8938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:29">
       <x:c r="B43" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C43" s="3" t="n">
         <x:v>21006</x:v>
@@ -4192,10 +4313,13 @@
       <x:c r="AB43" s="3" t="n">
         <x:v>11115</x:v>
       </x:c>
-    </x:row>
-    <x:row r="44" spans="1:28">
+      <x:c r="AC43" s="3" t="n">
+        <x:v>8938</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:29">
       <x:c r="B44" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C44" s="3" t="n">
         <x:v>0</x:v>
@@ -4275,10 +4399,13 @@
       <x:c r="AB44" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="45" spans="1:28">
+      <x:c r="AC44" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:29">
       <x:c r="B45" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C45" s="3" t="n">
         <x:v>52</x:v>
@@ -4358,10 +4485,13 @@
       <x:c r="AB45" s="3" t="n">
         <x:v>415</x:v>
       </x:c>
-    </x:row>
-    <x:row r="46" spans="1:28">
+      <x:c r="AC45" s="3" t="n">
+        <x:v>401</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:29">
       <x:c r="B46" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C46" s="3" t="n">
         <x:v>11116</x:v>
@@ -4441,10 +4571,13 @@
       <x:c r="AB46" s="3" t="n">
         <x:v>50406</x:v>
       </x:c>
-    </x:row>
-    <x:row r="47" spans="1:28">
+      <x:c r="AC46" s="3" t="n">
+        <x:v>56156</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:29">
       <x:c r="B47" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C47" s="3" t="n">
         <x:v>138754</x:v>
@@ -4524,10 +4657,13 @@
       <x:c r="AB47" s="3" t="n">
         <x:v>560844</x:v>
       </x:c>
-    </x:row>
-    <x:row r="48" spans="1:28">
+      <x:c r="AC47" s="3" t="n">
+        <x:v>577817</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:29">
       <x:c r="B48" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C48" s="3" t="n">
         <x:v>30524</x:v>
@@ -4607,10 +4743,13 @@
       <x:c r="AB48" s="3" t="n">
         <x:v>77545</x:v>
       </x:c>
-    </x:row>
-    <x:row r="49" spans="1:28">
+      <x:c r="AC48" s="3" t="n">
+        <x:v>71495</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:29">
       <x:c r="B49" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C49" s="3" t="n">
         <x:v>80516</x:v>
@@ -4690,10 +4829,13 @@
       <x:c r="AB49" s="3" t="n">
         <x:v>381649</x:v>
       </x:c>
-    </x:row>
-    <x:row r="50" spans="1:28">
+      <x:c r="AC49" s="3" t="n">
+        <x:v>391987</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:29">
       <x:c r="B50" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C50" s="3" t="n">
         <x:v>65935</x:v>
@@ -4773,10 +4915,13 @@
       <x:c r="AB50" s="3" t="n">
         <x:v>281042</x:v>
       </x:c>
-    </x:row>
-    <x:row r="51" spans="1:28">
+      <x:c r="AC50" s="3" t="n">
+        <x:v>286179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:29">
       <x:c r="B51" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C51" s="3" t="n">
         <x:v>0</x:v>
@@ -4856,10 +5001,13 @@
       <x:c r="AB51" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="52" spans="1:28">
+      <x:c r="AC51" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:29">
       <x:c r="B52" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C52" s="3" t="n">
         <x:v>65935</x:v>
@@ -4939,10 +5087,13 @@
       <x:c r="AB52" s="3" t="n">
         <x:v>281042</x:v>
       </x:c>
-    </x:row>
-    <x:row r="53" spans="1:28">
+      <x:c r="AC52" s="3" t="n">
+        <x:v>286179</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:29">
       <x:c r="B53" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C53" s="3" t="n">
         <x:v>4418</x:v>
@@ -5022,10 +5173,13 @@
       <x:c r="AB53" s="3" t="n">
         <x:v>48006</x:v>
       </x:c>
-    </x:row>
-    <x:row r="54" spans="1:28">
+      <x:c r="AC53" s="3" t="n">
+        <x:v>50312</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:29">
       <x:c r="B54" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C54" s="3" t="n">
         <x:v>2232</x:v>
@@ -5105,10 +5259,13 @@
       <x:c r="AB54" s="3" t="n">
         <x:v>9245</x:v>
       </x:c>
-    </x:row>
-    <x:row r="55" spans="1:28">
+      <x:c r="AC54" s="3" t="n">
+        <x:v>9461</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:29">
       <x:c r="B55" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C55" s="3" t="n">
         <x:v>7931</x:v>
@@ -5188,10 +5345,13 @@
       <x:c r="AB55" s="3" t="n">
         <x:v>43355</x:v>
       </x:c>
-    </x:row>
-    <x:row r="56" spans="1:28">
+      <x:c r="AC55" s="3" t="n">
+        <x:v>46035</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:29">
       <x:c r="B56" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C56" s="3" t="n">
         <x:v>4078</x:v>
@@ -5269,12 +5429,15 @@
         <x:v>6931</x:v>
       </x:c>
       <x:c r="AB56" s="3" t="n">
-        <x:v>42983</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="57" spans="1:28">
+        <x:v>53183</x:v>
+      </x:c>
+      <x:c r="AC56" s="3" t="n">
+        <x:v>6905</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:29">
       <x:c r="B57" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C57" s="3" t="n">
         <x:v>3259</x:v>
@@ -5352,12 +5515,15 @@
         <x:v>5916</x:v>
       </x:c>
       <x:c r="AB57" s="3" t="n">
-        <x:v>41916</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="58" spans="1:28">
+        <x:v>52116</x:v>
+      </x:c>
+      <x:c r="AC57" s="3" t="n">
+        <x:v>5713</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:29">
       <x:c r="B58" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C58" s="3" t="n">
         <x:v>0</x:v>
@@ -5435,12 +5601,15 @@
         <x:v>3128</x:v>
       </x:c>
       <x:c r="AB58" s="3" t="n">
-        <x:v>31824</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="59" spans="1:28">
+        <x:v>42024</x:v>
+      </x:c>
+      <x:c r="AC58" s="3" t="n">
+        <x:v>3541</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:29">
       <x:c r="B59" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C59" s="3" t="n">
         <x:v>0</x:v>
@@ -5520,10 +5689,13 @@
       <x:c r="AB59" s="3" t="n">
         <x:v>10092</x:v>
       </x:c>
-    </x:row>
-    <x:row r="60" spans="1:28">
+      <x:c r="AC59" s="3" t="n">
+        <x:v>2172</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:29">
       <x:c r="B60" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C60" s="3" t="n">
         <x:v>819</x:v>
@@ -5603,10 +5775,13 @@
       <x:c r="AB60" s="3" t="n">
         <x:v>1067</x:v>
       </x:c>
-    </x:row>
-    <x:row r="61" spans="1:28">
+      <x:c r="AC60" s="3" t="n">
+        <x:v>1191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:29">
       <x:c r="B61" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C61" s="3" t="n">
         <x:v>35469</x:v>
@@ -5684,12 +5859,15 @@
         <x:v>320626</x:v>
       </x:c>
       <x:c r="AB61" s="3" t="n">
-        <x:v>-32969</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="62" spans="1:28">
+        <x:v>-27140</x:v>
+      </x:c>
+      <x:c r="AC61" s="3" t="n">
+        <x:v>432786</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:29">
       <x:c r="B62" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C62" s="3" t="n">
         <x:v>4807</x:v>
@@ -5769,10 +5947,13 @@
       <x:c r="AB62" s="3" t="n">
         <x:v>39366</x:v>
       </x:c>
-    </x:row>
-    <x:row r="63" spans="1:28">
+      <x:c r="AC62" s="3" t="n">
+        <x:v>44182</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:29">
       <x:c r="B63" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C63" s="3" t="n">
         <x:v>23432</x:v>
@@ -5852,10 +6033,13 @@
       <x:c r="AB63" s="3" t="n">
         <x:v>131109</x:v>
       </x:c>
-    </x:row>
-    <x:row r="64" spans="1:28">
+      <x:c r="AC63" s="3" t="n">
+        <x:v>135287</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:29">
       <x:c r="B64" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C64" s="3" t="n">
         <x:v>23532</x:v>
@@ -5935,10 +6119,13 @@
       <x:c r="AB64" s="3" t="n">
         <x:v>132352</x:v>
       </x:c>
-    </x:row>
-    <x:row r="65" spans="1:28">
+      <x:c r="AC64" s="3" t="n">
+        <x:v>137202</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:29">
       <x:c r="B65" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C65" s="3" t="n">
         <x:v>18760</x:v>
@@ -6018,10 +6205,13 @@
       <x:c r="AB65" s="3" t="n">
         <x:v>100395</x:v>
       </x:c>
-    </x:row>
-    <x:row r="66" spans="1:28">
+      <x:c r="AC65" s="3" t="n">
+        <x:v>103689</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:29">
       <x:c r="B66" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C66" s="3" t="n">
         <x:v>4772</x:v>
@@ -6101,10 +6291,13 @@
       <x:c r="AB66" s="3" t="n">
         <x:v>31957</x:v>
       </x:c>
-    </x:row>
-    <x:row r="67" spans="1:28">
+      <x:c r="AC66" s="3" t="n">
+        <x:v>33514</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:29">
       <x:c r="B67" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C67" s="3" t="n">
         <x:v>-100</x:v>
@@ -6184,10 +6377,13 @@
       <x:c r="AB67" s="3" t="n">
         <x:v>-1243</x:v>
       </x:c>
-    </x:row>
-    <x:row r="68" spans="1:28">
+      <x:c r="AC67" s="3" t="n">
+        <x:v>-1916</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:29">
       <x:c r="B68" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C68" s="3" t="n">
         <x:v>-18685</x:v>
@@ -6267,10 +6463,13 @@
       <x:c r="AB68" s="3" t="n">
         <x:v>-84105</x:v>
       </x:c>
-    </x:row>
-    <x:row r="69" spans="1:28">
+      <x:c r="AC68" s="3" t="n">
+        <x:v>-90686</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:29">
       <x:c r="B69" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C69" s="3" t="n">
         <x:v>-13695</x:v>
@@ -6350,10 +6549,13 @@
       <x:c r="AB69" s="3" t="n">
         <x:v>-55903</x:v>
       </x:c>
-    </x:row>
-    <x:row r="70" spans="1:28">
+      <x:c r="AC69" s="3" t="n">
+        <x:v>-60587</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:29">
       <x:c r="B70" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C70" s="3" t="n">
         <x:v>-4638</x:v>
@@ -6433,10 +6635,13 @@
       <x:c r="AB70" s="3" t="n">
         <x:v>-25422</x:v>
       </x:c>
-    </x:row>
-    <x:row r="71" spans="1:28">
+      <x:c r="AC70" s="3" t="n">
+        <x:v>-27180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:29">
       <x:c r="B71" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C71" s="3" t="n">
         <x:v>-352</x:v>
@@ -6516,10 +6721,13 @@
       <x:c r="AB71" s="3" t="n">
         <x:v>-2780</x:v>
       </x:c>
-    </x:row>
-    <x:row r="72" spans="1:28">
+      <x:c r="AC71" s="3" t="n">
+        <x:v>-2919</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:29">
       <x:c r="B72" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C72" s="3" t="n">
         <x:v>60</x:v>
@@ -6599,10 +6807,13 @@
       <x:c r="AB72" s="3" t="n">
         <x:v>-7639</x:v>
       </x:c>
-    </x:row>
-    <x:row r="73" spans="1:28">
+      <x:c r="AC72" s="3" t="n">
+        <x:v>-419</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:29">
       <x:c r="B73" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C73" s="3" t="n">
         <x:v>109</x:v>
@@ -6682,10 +6893,13 @@
       <x:c r="AB73" s="3" t="n">
         <x:v>632</x:v>
       </x:c>
-    </x:row>
-    <x:row r="74" spans="1:28">
+      <x:c r="AC73" s="3" t="n">
+        <x:v>603</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:29">
       <x:c r="B74" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C74" s="3" t="n">
         <x:v>-49</x:v>
@@ -6765,10 +6979,13 @@
       <x:c r="AB74" s="3" t="n">
         <x:v>-8271</x:v>
       </x:c>
-    </x:row>
-    <x:row r="75" spans="1:28">
+      <x:c r="AC74" s="3" t="n">
+        <x:v>-1022</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:29">
       <x:c r="B75" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C75" s="3" t="n">
         <x:v>370378</x:v>
@@ -6846,12 +7063,15 @@
         <x:v>1437723</x:v>
       </x:c>
       <x:c r="AB75" s="3" t="n">
-        <x:v>1601113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="76" spans="1:28">
+        <x:v>1611313</x:v>
+      </x:c>
+      <x:c r="AC75" s="3" t="n">
+        <x:v>1620142</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:29">
       <x:c r="B76" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C76" s="3" t="n">
         <x:v>30662</x:v>
@@ -6929,12 +7149,15 @@
         <x:v>269956</x:v>
       </x:c>
       <x:c r="AB76" s="3" t="n">
-        <x:v>-72335</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="77" spans="1:28">
+        <x:v>-66506</x:v>
+      </x:c>
+      <x:c r="AC76" s="3" t="n">
+        <x:v>388605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:29">
       <x:c r="B77" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C77" s="3" t="n">
         <x:v>3940</x:v>
@@ -7014,10 +7237,13 @@
       <x:c r="AB77" s="3" t="n">
         <x:v>18247</x:v>
       </x:c>
-    </x:row>
-    <x:row r="78" spans="1:28">
+      <x:c r="AC77" s="3" t="n">
+        <x:v>19143</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:29">
       <x:c r="B78" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C78" s="3" t="n">
         <x:v>6348</x:v>
@@ -7097,10 +7323,13 @@
       <x:c r="AB78" s="3" t="n">
         <x:v>9510</x:v>
       </x:c>
-    </x:row>
-    <x:row r="79" spans="1:28">
+      <x:c r="AC78" s="3" t="n">
+        <x:v>9984</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:29">
       <x:c r="B79" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C79" s="3" t="n">
         <x:v>352</x:v>
@@ -7180,13 +7409,16 @@
       <x:c r="AB79" s="3" t="n">
         <x:v>2780</x:v>
       </x:c>
-    </x:row>
-    <x:row r="80" spans="1:28">
+      <x:c r="AC79" s="3" t="n">
+        <x:v>2919</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:29">
       <x:c r="A80" s="2" t="s">
-        <x:v>104</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="B80" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C80" s="3" t="n">
         <x:v>502639</x:v>
@@ -7264,12 +7496,15 @@
         <x:v>2040386</x:v>
       </x:c>
       <x:c r="AB80" s="3" t="n">
-        <x:v>1857831</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="81" spans="1:28">
+        <x:v>1874837</x:v>
+      </x:c>
+      <x:c r="AC80" s="3" t="n">
+        <x:v>2379475</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:29">
       <x:c r="B81" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C81" s="3" t="n">
         <x:v>153503</x:v>
@@ -7347,12 +7582,15 @@
         <x:v>619007</x:v>
       </x:c>
       <x:c r="AB81" s="3" t="n">
-        <x:v>497441</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="82" spans="1:28">
+        <x:v>514962</x:v>
+      </x:c>
+      <x:c r="AC81" s="3" t="n">
+        <x:v>850851</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:29">
       <x:c r="B82" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C82" s="3" t="n">
         <x:v>143991</x:v>
@@ -7432,10 +7670,13 @@
       <x:c r="AB82" s="3" t="n">
         <x:v>444598</x:v>
       </x:c>
-    </x:row>
-    <x:row r="83" spans="1:28">
+      <x:c r="AC82" s="3" t="n">
+        <x:v>472727</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:29">
       <x:c r="B83" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C83" s="3" t="n">
         <x:v>975</x:v>
@@ -7515,10 +7756,13 @@
       <x:c r="AB83" s="3" t="n">
         <x:v>64</x:v>
       </x:c>
-    </x:row>
-    <x:row r="84" spans="1:28">
+      <x:c r="AC83" s="3" t="n">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:29">
       <x:c r="B84" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C84" s="3" t="n">
         <x:v>93846</x:v>
@@ -7596,12 +7840,15 @@
         <x:v>382860</x:v>
       </x:c>
       <x:c r="AB84" s="3" t="n">
-        <x:v>387770</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="85" spans="1:28">
+        <x:v>387255</x:v>
+      </x:c>
+      <x:c r="AC84" s="3" t="n">
+        <x:v>406722</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:29">
       <x:c r="B85" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C85" s="3" t="n">
         <x:v>78009</x:v>
@@ -7681,10 +7928,13 @@
       <x:c r="AB85" s="3" t="n">
         <x:v>387128</x:v>
       </x:c>
-    </x:row>
-    <x:row r="86" spans="1:28">
+      <x:c r="AC85" s="3" t="n">
+        <x:v>501539</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:29">
       <x:c r="B86" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C86" s="3" t="n">
         <x:v>41785</x:v>
@@ -7764,10 +8014,13 @@
       <x:c r="AB86" s="3" t="n">
         <x:v>92628</x:v>
       </x:c>
-    </x:row>
-    <x:row r="87" spans="1:28">
+      <x:c r="AC86" s="3" t="n">
+        <x:v>71795</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:29">
       <x:c r="B87" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C87" s="3" t="n">
         <x:v>41785</x:v>
@@ -7847,10 +8100,13 @@
       <x:c r="AB87" s="3" t="n">
         <x:v>85239</x:v>
       </x:c>
-    </x:row>
-    <x:row r="88" spans="1:28">
+      <x:c r="AC87" s="3" t="n">
+        <x:v>66915</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:29">
       <x:c r="B88" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C88" s="3" t="n">
         <x:v>0</x:v>
@@ -7930,10 +8186,13 @@
       <x:c r="AB88" s="3" t="n">
         <x:v>7389</x:v>
       </x:c>
-    </x:row>
-    <x:row r="89" spans="1:28">
+      <x:c r="AC88" s="3" t="n">
+        <x:v>4881</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:29">
       <x:c r="B89" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C89" s="3" t="n">
         <x:v>5285</x:v>
@@ -8013,10 +8272,13 @@
       <x:c r="AB89" s="3" t="n">
         <x:v>210365</x:v>
       </x:c>
-    </x:row>
-    <x:row r="90" spans="1:28">
+      <x:c r="AC89" s="3" t="n">
+        <x:v>229750</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:29">
       <x:c r="B90" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C90" s="3" t="n">
         <x:v>3671</x:v>
@@ -8096,10 +8358,13 @@
       <x:c r="AB90" s="3" t="n">
         <x:v>194963</x:v>
       </x:c>
-    </x:row>
-    <x:row r="91" spans="1:28">
+      <x:c r="AC90" s="3" t="n">
+        <x:v>218882</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:29">
       <x:c r="B91" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C91" s="3" t="n">
         <x:v>1614</x:v>
@@ -8179,10 +8444,13 @@
       <x:c r="AB91" s="3" t="n">
         <x:v>15030</x:v>
       </x:c>
-    </x:row>
-    <x:row r="92" spans="1:28">
+      <x:c r="AC91" s="3" t="n">
+        <x:v>10494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:29">
       <x:c r="B92" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C92" s="3" t="n">
         <x:v>0</x:v>
@@ -8262,10 +8530,13 @@
       <x:c r="AB92" s="3" t="n">
         <x:v>373</x:v>
       </x:c>
-    </x:row>
-    <x:row r="93" spans="1:28">
+      <x:c r="AC92" s="3" t="n">
+        <x:v>374</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:29">
       <x:c r="B93" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C93" s="3" t="n">
         <x:v>9474</x:v>
@@ -8345,10 +8616,13 @@
       <x:c r="AB93" s="3" t="n">
         <x:v>59998</x:v>
       </x:c>
-    </x:row>
-    <x:row r="94" spans="1:28">
+      <x:c r="AC93" s="3" t="n">
+        <x:v>180219</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:29">
       <x:c r="B94" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C94" s="3" t="n">
         <x:v>9080</x:v>
@@ -8428,10 +8702,13 @@
       <x:c r="AB94" s="3" t="n">
         <x:v>59075</x:v>
       </x:c>
-    </x:row>
-    <x:row r="95" spans="1:28">
+      <x:c r="AC94" s="3" t="n">
+        <x:v>179260</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:29">
       <x:c r="B95" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C95" s="3" t="n">
         <x:v>394</x:v>
@@ -8511,10 +8788,13 @@
       <x:c r="AB95" s="3" t="n">
         <x:v>923</x:v>
       </x:c>
-    </x:row>
-    <x:row r="96" spans="1:28">
+      <x:c r="AC95" s="3" t="n">
+        <x:v>960</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:29">
       <x:c r="B96" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C96" s="3" t="n">
         <x:v>14340</x:v>
@@ -8594,10 +8874,13 @@
       <x:c r="AB96" s="3" t="n">
         <x:v>19706</x:v>
       </x:c>
-    </x:row>
-    <x:row r="97" spans="1:28">
+      <x:c r="AC96" s="3" t="n">
+        <x:v>15169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:29">
       <x:c r="B97" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C97" s="3" t="n">
         <x:v>7125</x:v>
@@ -8677,10 +8960,13 @@
       <x:c r="AB97" s="3" t="n">
         <x:v>4430</x:v>
       </x:c>
-    </x:row>
-    <x:row r="98" spans="1:28">
+      <x:c r="AC97" s="3" t="n">
+        <x:v>4606</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:29">
       <x:c r="B98" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C98" s="3" t="n">
         <x:v>6976</x:v>
@@ -8760,10 +9046,13 @@
       <x:c r="AB98" s="3" t="n">
         <x:v>2697</x:v>
       </x:c>
-    </x:row>
-    <x:row r="99" spans="1:28">
+      <x:c r="AC98" s="3" t="n">
+        <x:v>2199</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:29">
       <x:c r="B99" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C99" s="3" t="n">
         <x:v>6436</x:v>
@@ -8843,10 +9132,13 @@
       <x:c r="AB99" s="3" t="n">
         <x:v>1418</x:v>
       </x:c>
-    </x:row>
-    <x:row r="100" spans="1:28">
+      <x:c r="AC99" s="3" t="n">
+        <x:v>940</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:29">
       <x:c r="B100" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C100" s="3" t="n">
         <x:v>540</x:v>
@@ -8926,10 +9218,13 @@
       <x:c r="AB100" s="3" t="n">
         <x:v>1279</x:v>
       </x:c>
-    </x:row>
-    <x:row r="101" spans="1:28">
+      <x:c r="AC100" s="3" t="n">
+        <x:v>1259</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:29">
       <x:c r="B101" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C101" s="3" t="n">
         <x:v>149</x:v>
@@ -9009,10 +9304,13 @@
       <x:c r="AB101" s="3" t="n">
         <x:v>1733</x:v>
       </x:c>
-    </x:row>
-    <x:row r="102" spans="1:28">
+      <x:c r="AC101" s="3" t="n">
+        <x:v>2407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:29">
       <x:c r="B102" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C102" s="3" t="n">
         <x:v>29175</x:v>
@@ -9092,10 +9390,13 @@
       <x:c r="AB102" s="3" t="n">
         <x:v>123845</x:v>
       </x:c>
-    </x:row>
-    <x:row r="103" spans="1:28">
+      <x:c r="AC102" s="3" t="n">
+        <x:v>131334</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:29">
       <x:c r="B103" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C103" s="3" t="n">
         <x:v>3139</x:v>
@@ -9175,10 +9476,13 @@
       <x:c r="AB103" s="3" t="n">
         <x:v>16984</x:v>
       </x:c>
-    </x:row>
-    <x:row r="104" spans="1:28">
+      <x:c r="AC103" s="3" t="n">
+        <x:v>16254</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:29">
       <x:c r="B104" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C104" s="3" t="n">
         <x:v>0</x:v>
@@ -9258,10 +9562,13 @@
       <x:c r="AB104" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="105" spans="1:28">
+      <x:c r="AC104" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:29">
       <x:c r="B105" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C105" s="3" t="n">
         <x:v>0</x:v>
@@ -9341,10 +9648,13 @@
       <x:c r="AB105" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="106" spans="1:28">
+      <x:c r="AC105" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:29">
       <x:c r="B106" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C106" s="3" t="n">
         <x:v>0</x:v>
@@ -9424,10 +9734,13 @@
       <x:c r="AB106" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="107" spans="1:28">
+      <x:c r="AC106" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:29">
       <x:c r="B107" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C107" s="3" t="n">
         <x:v>0</x:v>
@@ -9507,10 +9820,13 @@
       <x:c r="AB107" s="3" t="n">
         <x:v>2807</x:v>
       </x:c>
-    </x:row>
-    <x:row r="108" spans="1:28">
+      <x:c r="AC107" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:29">
       <x:c r="B108" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C108" s="3" t="n">
         <x:v>427</x:v>
@@ -9590,10 +9906,13 @@
       <x:c r="AB108" s="3" t="n">
         <x:v>3755</x:v>
       </x:c>
-    </x:row>
-    <x:row r="109" spans="1:28">
+      <x:c r="AC108" s="3" t="n">
+        <x:v>5713</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:29">
       <x:c r="B109" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C109" s="3" t="n">
         <x:v>2713</x:v>
@@ -9673,10 +9992,13 @@
       <x:c r="AB109" s="3" t="n">
         <x:v>8767</x:v>
       </x:c>
-    </x:row>
-    <x:row r="110" spans="1:28">
+      <x:c r="AC109" s="3" t="n">
+        <x:v>9056</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:29">
       <x:c r="B110" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C110" s="3" t="n">
         <x:v>0</x:v>
@@ -9756,10 +10078,13 @@
       <x:c r="AB110" s="3" t="n">
         <x:v>1656</x:v>
       </x:c>
-    </x:row>
-    <x:row r="111" spans="1:28">
+      <x:c r="AC110" s="3" t="n">
+        <x:v>1485</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:29">
       <x:c r="B111" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C111" s="3" t="n">
         <x:v>0</x:v>
@@ -9839,10 +10164,13 @@
       <x:c r="AB111" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="112" spans="1:28">
+      <x:c r="AC111" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:29">
       <x:c r="B112" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C112" s="3" t="n">
         <x:v>462766</x:v>
@@ -9920,12 +10248,15 @@
         <x:v>1721173</x:v>
       </x:c>
       <x:c r="AB112" s="3" t="n">
-        <x:v>1883882</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="113" spans="1:28">
+        <x:v>1894082</x:v>
+      </x:c>
+      <x:c r="AC112" s="3" t="n">
+        <x:v>1931883</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:29">
       <x:c r="B113" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C113" s="3" t="n">
         <x:v>125991</x:v>
@@ -10005,10 +10336,13 @@
       <x:c r="AB113" s="3" t="n">
         <x:v>537890</x:v>
       </x:c>
-    </x:row>
-    <x:row r="114" spans="1:28">
+      <x:c r="AC113" s="3" t="n">
+        <x:v>561648</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:29">
       <x:c r="B114" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C114" s="3" t="n">
         <x:v>58215</x:v>
@@ -10088,10 +10422,13 @@
       <x:c r="AB114" s="3" t="n">
         <x:v>267695</x:v>
       </x:c>
-    </x:row>
-    <x:row r="115" spans="1:28">
+      <x:c r="AC114" s="3" t="n">
+        <x:v>292917</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:29">
       <x:c r="B115" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C115" s="3" t="n">
         <x:v>29979</x:v>
@@ -10171,10 +10508,13 @@
       <x:c r="AB115" s="3" t="n">
         <x:v>136955</x:v>
       </x:c>
-    </x:row>
-    <x:row r="116" spans="1:28">
+      <x:c r="AC115" s="3" t="n">
+        <x:v>147605</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:29">
       <x:c r="B116" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C116" s="3" t="n">
         <x:v>26764</x:v>
@@ -10254,10 +10594,13 @@
       <x:c r="AB116" s="3" t="n">
         <x:v>23986</x:v>
       </x:c>
-    </x:row>
-    <x:row r="117" spans="1:28">
+      <x:c r="AC116" s="3" t="n">
+        <x:v>20013</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:29">
       <x:c r="B117" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C117" s="3" t="n">
         <x:v>26616</x:v>
@@ -10337,10 +10680,13 @@
       <x:c r="AB117" s="3" t="n">
         <x:v>23104</x:v>
       </x:c>
-    </x:row>
-    <x:row r="118" spans="1:28">
+      <x:c r="AC117" s="3" t="n">
+        <x:v>19129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:29">
       <x:c r="B118" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C118" s="3" t="n">
         <x:v>26616</x:v>
@@ -10420,10 +10766,13 @@
       <x:c r="AB118" s="3" t="n">
         <x:v>23104</x:v>
       </x:c>
-    </x:row>
-    <x:row r="119" spans="1:28">
+      <x:c r="AC118" s="3" t="n">
+        <x:v>19129</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:29">
       <x:c r="B119" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C119" s="3" t="n">
         <x:v>0</x:v>
@@ -10503,10 +10852,13 @@
       <x:c r="AB119" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="120" spans="1:28">
+      <x:c r="AC119" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:29">
       <x:c r="B120" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C120" s="3" t="n">
         <x:v>148</x:v>
@@ -10586,10 +10938,13 @@
       <x:c r="AB120" s="3" t="n">
         <x:v>882</x:v>
       </x:c>
-    </x:row>
-    <x:row r="121" spans="1:28">
+      <x:c r="AC120" s="3" t="n">
+        <x:v>884</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:29">
       <x:c r="B121" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C121" s="3" t="n">
         <x:v>13985</x:v>
@@ -10669,10 +11024,13 @@
       <x:c r="AB121" s="3" t="n">
         <x:v>79968</x:v>
       </x:c>
-    </x:row>
-    <x:row r="122" spans="1:28">
+      <x:c r="AC121" s="3" t="n">
+        <x:v>87159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="122" spans="1:29">
       <x:c r="B122" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C122" s="3" t="n">
         <x:v>145952</x:v>
@@ -10752,10 +11110,13 @@
       <x:c r="AB122" s="3" t="n">
         <x:v>579732</x:v>
       </x:c>
-    </x:row>
-    <x:row r="123" spans="1:28">
+      <x:c r="AC122" s="3" t="n">
+        <x:v>597375</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="123" spans="1:29">
       <x:c r="B123" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C123" s="3" t="n">
         <x:v>35102</x:v>
@@ -10835,10 +11196,13 @@
       <x:c r="AB123" s="3" t="n">
         <x:v>89036</x:v>
       </x:c>
-    </x:row>
-    <x:row r="124" spans="1:28">
+      <x:c r="AC123" s="3" t="n">
+        <x:v>86404</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="124" spans="1:29">
       <x:c r="B124" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C124" s="3" t="n">
         <x:v>21807</x:v>
@@ -10918,10 +11282,13 @@
       <x:c r="AB124" s="3" t="n">
         <x:v>123320</x:v>
       </x:c>
-    </x:row>
-    <x:row r="125" spans="1:28">
+      <x:c r="AC124" s="3" t="n">
+        <x:v>129541</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="125" spans="1:29">
       <x:c r="B125" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C125" s="3" t="n">
         <x:v>0</x:v>
@@ -11001,10 +11368,13 @@
       <x:c r="AB125" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="126" spans="1:28">
+      <x:c r="AC125" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="126" spans="1:29">
       <x:c r="B126" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C126" s="3" t="n">
         <x:v>0</x:v>
@@ -11084,10 +11454,13 @@
       <x:c r="AB126" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="127" spans="1:28">
+      <x:c r="AC126" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="127" spans="1:29">
       <x:c r="B127" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C127" s="3" t="n">
         <x:v>0</x:v>
@@ -11167,10 +11540,13 @@
       <x:c r="AB127" s="3" t="n">
         <x:v>0</x:v>
       </x:c>
-    </x:row>
-    <x:row r="128" spans="1:28">
+      <x:c r="AC127" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="128" spans="1:29">
       <x:c r="B128" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C128" s="3" t="n">
         <x:v>11641</x:v>
@@ -11250,10 +11626,13 @@
       <x:c r="AB128" s="3" t="n">
         <x:v>70478</x:v>
       </x:c>
-    </x:row>
-    <x:row r="129" spans="1:28">
+      <x:c r="AC128" s="3" t="n">
+        <x:v>73795</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="129" spans="1:29">
       <x:c r="B129" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C129" s="3" t="n">
         <x:v>2235</x:v>
@@ -11333,10 +11712,13 @@
       <x:c r="AB129" s="3" t="n">
         <x:v>9487</x:v>
       </x:c>
-    </x:row>
-    <x:row r="130" spans="1:28">
+      <x:c r="AC129" s="3" t="n">
+        <x:v>9711</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="130" spans="1:29">
       <x:c r="B130" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C130" s="3" t="n">
         <x:v>7931</x:v>
@@ -11416,10 +11798,13 @@
       <x:c r="AB130" s="3" t="n">
         <x:v>43355</x:v>
       </x:c>
-    </x:row>
-    <x:row r="131" spans="1:28">
+      <x:c r="AC130" s="3" t="n">
+        <x:v>46035</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="131" spans="1:29">
       <x:c r="B131" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C131" s="3" t="n">
         <x:v>4971</x:v>
@@ -11497,12 +11882,15 @@
         <x:v>9350</x:v>
       </x:c>
       <x:c r="AB131" s="3" t="n">
-        <x:v>45300</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="132" spans="1:28">
+        <x:v>55500</x:v>
+      </x:c>
+      <x:c r="AC131" s="3" t="n">
+        <x:v>9222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="132" spans="1:29">
       <x:c r="B132" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C132" s="3" t="n">
         <x:v>4152</x:v>
@@ -11580,12 +11968,15 @@
         <x:v>8335</x:v>
       </x:c>
       <x:c r="AB132" s="3" t="n">
-        <x:v>44233</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="133" spans="1:28">
+        <x:v>54433</x:v>
+      </x:c>
+      <x:c r="AC132" s="3" t="n">
+        <x:v>8031</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="133" spans="1:29">
       <x:c r="B133" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C133" s="3" t="n">
         <x:v>0</x:v>
@@ -11663,12 +12054,15 @@
         <x:v>4138</x:v>
       </x:c>
       <x:c r="AB133" s="3" t="n">
-        <x:v>33024</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="134" spans="1:28">
+        <x:v>43224</x:v>
+      </x:c>
+      <x:c r="AC133" s="3" t="n">
+        <x:v>4741</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="134" spans="1:29">
       <x:c r="B134" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C134" s="3" t="n">
         <x:v>0</x:v>
@@ -11748,10 +12142,13 @@
       <x:c r="AB134" s="3" t="n">
         <x:v>11209</x:v>
       </x:c>
-    </x:row>
-    <x:row r="135" spans="1:28">
+      <x:c r="AC134" s="3" t="n">
+        <x:v>3289</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="135" spans="1:29">
       <x:c r="B135" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C135" s="3" t="n">
         <x:v>819</x:v>
@@ -11831,10 +12228,13 @@
       <x:c r="AB135" s="3" t="n">
         <x:v>1067</x:v>
       </x:c>
-    </x:row>
-    <x:row r="136" spans="1:28">
+      <x:c r="AC135" s="3" t="n">
+        <x:v>1191</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="136" spans="1:29">
       <x:c r="B136" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C136" s="3" t="n">
         <x:v>39874</x:v>
@@ -11912,12 +12312,15 @@
         <x:v>319212</x:v>
       </x:c>
       <x:c r="AB136" s="3" t="n">
-        <x:v>-26051</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="137" spans="1:28">
+        <x:v>-19245</x:v>
+      </x:c>
+      <x:c r="AC136" s="3" t="n">
+        <x:v>447592</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="137" spans="1:29">
       <x:c r="B137" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C137" s="3" t="n">
         <x:v>9613</x:v>
@@ -11997,10 +12400,13 @@
       <x:c r="AB137" s="3" t="n">
         <x:v>69929</x:v>
       </x:c>
-    </x:row>
-    <x:row r="138" spans="1:28">
+      <x:c r="AC137" s="3" t="n">
+        <x:v>71098</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="138" spans="1:29">
       <x:c r="B138" s="2" t="s">
-        <x:v>87</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C138" s="3" t="n">
         <x:v>39960</x:v>
@@ -12080,10 +12486,13 @@
       <x:c r="AB138" s="3" t="n">
         <x:v>217303</x:v>
       </x:c>
-    </x:row>
-    <x:row r="139" spans="1:28">
+      <x:c r="AC138" s="3" t="n">
+        <x:v>221040</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="139" spans="1:29">
       <x:c r="B139" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C139" s="3" t="n">
         <x:v>40284</x:v>
@@ -12163,10 +12572,13 @@
       <x:c r="AB139" s="3" t="n">
         <x:v>221932</x:v>
       </x:c>
-    </x:row>
-    <x:row r="140" spans="1:28">
+      <x:c r="AC139" s="3" t="n">
+        <x:v>226368</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="140" spans="1:29">
       <x:c r="B140" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C140" s="3" t="n">
         <x:v>34889</x:v>
@@ -12246,10 +12658,13 @@
       <x:c r="AB140" s="3" t="n">
         <x:v>189975</x:v>
       </x:c>
-    </x:row>
-    <x:row r="141" spans="1:28">
+      <x:c r="AC140" s="3" t="n">
+        <x:v>192854</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="141" spans="1:29">
       <x:c r="B141" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C141" s="3" t="n">
         <x:v>5395</x:v>
@@ -12329,10 +12744,13 @@
       <x:c r="AB141" s="3" t="n">
         <x:v>31957</x:v>
       </x:c>
-    </x:row>
-    <x:row r="142" spans="1:28">
+      <x:c r="AC141" s="3" t="n">
+        <x:v>33514</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="142" spans="1:29">
       <x:c r="B142" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C142" s="3" t="n">
         <x:v>-324</x:v>
@@ -12412,10 +12830,13 @@
       <x:c r="AB142" s="3" t="n">
         <x:v>-4629</x:v>
       </x:c>
-    </x:row>
-    <x:row r="143" spans="1:28">
+      <x:c r="AC142" s="3" t="n">
+        <x:v>-5328</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="143" spans="1:29">
       <x:c r="B143" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="C143" s="3" t="n">
         <x:v>-30382</x:v>
@@ -12495,10 +12916,13 @@
       <x:c r="AB143" s="3" t="n">
         <x:v>-139735</x:v>
       </x:c>
-    </x:row>
-    <x:row r="144" spans="1:28">
+      <x:c r="AC143" s="3" t="n">
+        <x:v>-150523</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="144" spans="1:29">
       <x:c r="B144" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C144" s="3" t="n">
         <x:v>-24779</x:v>
@@ -12578,10 +13002,13 @@
       <x:c r="AB144" s="3" t="n">
         <x:v>-111533</x:v>
       </x:c>
-    </x:row>
-    <x:row r="145" spans="1:28">
+      <x:c r="AC144" s="3" t="n">
+        <x:v>-120424</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="145" spans="1:29">
       <x:c r="B145" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C145" s="3" t="n">
         <x:v>-5200</x:v>
@@ -12661,10 +13088,13 @@
       <x:c r="AB145" s="3" t="n">
         <x:v>-25422</x:v>
       </x:c>
-    </x:row>
-    <x:row r="146" spans="1:28">
+      <x:c r="AC145" s="3" t="n">
+        <x:v>-27180</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="146" spans="1:29">
       <x:c r="B146" s="2" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C146" s="3" t="n">
         <x:v>-403</x:v>
@@ -12744,10 +13174,13 @@
       <x:c r="AB146" s="3" t="n">
         <x:v>-2780</x:v>
       </x:c>
-    </x:row>
-    <x:row r="147" spans="1:28">
+      <x:c r="AC146" s="3" t="n">
+        <x:v>-2919</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="147" spans="1:29">
       <x:c r="B147" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C147" s="3" t="n">
         <x:v>35</x:v>
@@ -12827,10 +13260,13 @@
       <x:c r="AB147" s="3" t="n">
         <x:v>-7639</x:v>
       </x:c>
-    </x:row>
-    <x:row r="148" spans="1:28">
+      <x:c r="AC147" s="3" t="n">
+        <x:v>581</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="148" spans="1:29">
       <x:c r="B148" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C148" s="3" t="n">
         <x:v>646</x:v>
@@ -12910,10 +13346,13 @@
       <x:c r="AB148" s="3" t="n">
         <x:v>1632</x:v>
       </x:c>
-    </x:row>
-    <x:row r="149" spans="1:28">
+      <x:c r="AC148" s="3" t="n">
+        <x:v>2603</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="149" spans="1:29">
       <x:c r="B149" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="C149" s="3" t="n">
         <x:v>-611</x:v>
@@ -12993,10 +13432,13 @@
       <x:c r="AB149" s="3" t="n">
         <x:v>-9271</x:v>
       </x:c>
-    </x:row>
-    <x:row r="150" spans="1:28">
+      <x:c r="AC149" s="3" t="n">
+        <x:v>-2022</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="150" spans="1:29">
       <x:c r="B150" s="2" t="s">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="C150" s="3" t="n">
         <x:v>472379</x:v>
@@ -13074,12 +13516,15 @@
         <x:v>1805768</x:v>
       </x:c>
       <x:c r="AB150" s="3" t="n">
-        <x:v>1953811</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="151" spans="1:28">
+        <x:v>1964011</x:v>
+      </x:c>
+      <x:c r="AC150" s="3" t="n">
+        <x:v>2002981</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="151" spans="1:29">
       <x:c r="B151" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C151" s="3" t="n">
         <x:v>30261</x:v>
@@ -13157,12 +13602,15 @@
         <x:v>234618</x:v>
       </x:c>
       <x:c r="AB151" s="3" t="n">
-        <x:v>-95980</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="152" spans="1:28">
+        <x:v>-89174</x:v>
+      </x:c>
+      <x:c r="AC151" s="3" t="n">
+        <x:v>376494</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="152" spans="1:29">
       <x:c r="B152" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="C152" s="3" t="n">
         <x:v>6025</x:v>
@@ -13242,10 +13690,13 @@
       <x:c r="AB152" s="3" t="n">
         <x:v>18831</x:v>
       </x:c>
-    </x:row>
-    <x:row r="153" spans="1:28">
+      <x:c r="AC152" s="3" t="n">
+        <x:v>19757</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="153" spans="1:29">
       <x:c r="B153" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="C153" s="3" t="n">
         <x:v>9110</x:v>
@@ -13325,10 +13776,13 @@
       <x:c r="AB153" s="3" t="n">
         <x:v>10902</x:v>
       </x:c>
-    </x:row>
-    <x:row r="154" spans="1:28">
+      <x:c r="AC153" s="3" t="n">
+        <x:v>11446</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="154" spans="1:29">
       <x:c r="B154" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C154" s="3" t="n">
         <x:v>403</x:v>
@@ -13408,125 +13862,128 @@
       <x:c r="AB154" s="3" t="n">
         <x:v>2780</x:v>
       </x:c>
-    </x:row>
-    <x:row r="157" spans="1:28">
+      <x:c r="AC154" s="3" t="n">
+        <x:v>2919</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="157" spans="1:29">
       <x:c r="A157" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="158" spans="1:28">
+        <x:v>106</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="158" spans="1:29">
       <x:c r="A158" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="159" spans="1:28">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="159" spans="1:29">
       <x:c r="A159" s="0" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="161" spans="1:29">
+      <x:c r="A161" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="162" spans="1:29">
+      <x:c r="A162" s="0" t="s">
+        <x:v>110</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="164" spans="1:29">
+      <x:c r="A164" s="0" t="s">
+        <x:v>111</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="165" spans="1:29">
+      <x:c r="A165" s="0" t="s">
         <x:v>107</x:v>
       </x:c>
     </x:row>
-    <x:row r="161" spans="1:28">
-      <x:c r="A161" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="162" spans="1:28">
-      <x:c r="A162" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="164" spans="1:28">
-      <x:c r="A164" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="165" spans="1:28">
-      <x:c r="A165" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="166" spans="1:28">
+    <x:row r="166" spans="1:29">
       <x:c r="A166" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="167" spans="1:28">
+        <x:v>112</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="167" spans="1:29">
       <x:c r="A167" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="168" spans="1:28">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="168" spans="1:29">
       <x:c r="A168" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="172" spans="1:28">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="172" spans="1:29">
       <x:c r="A172" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="174" spans="1:28">
+        <x:v>115</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="174" spans="1:29">
       <x:c r="A174" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="175" spans="1:28">
+        <x:v>116</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="175" spans="1:29">
       <x:c r="A175" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="176" spans="1:28">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="176" spans="1:29">
       <x:c r="A176" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="177" spans="1:28">
+        <x:v>117</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="177" spans="1:29">
       <x:c r="A177" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="178" spans="1:28">
+        <x:v>118</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="178" spans="1:29">
       <x:c r="A178" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="179" spans="1:28">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="179" spans="1:29">
       <x:c r="A179" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="181" spans="1:28">
+        <x:v>119</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="181" spans="1:29">
       <x:c r="A181" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="182" spans="1:28">
+        <x:v>120</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="182" spans="1:29">
       <x:c r="A182" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="183" spans="1:28">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="183" spans="1:29">
       <x:c r="A183" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="190" spans="1:28">
+        <x:v>121</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="190" spans="1:29">
       <x:c r="A190" s="0" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="191" spans="1:28">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="191" spans="1:29">
       <x:c r="A191" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="193" spans="1:28">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="193" spans="1:29">
       <x:c r="A193" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="194" spans="1:28">
+        <x:v>124</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="194" spans="1:29">
       <x:c r="A194" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
